--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3343479.533478511</v>
+        <v>3337757.921510625</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836241</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8381429.713964874</v>
+        <v>8381429.713964872</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>38.32326053493003</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -712,16 +712,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>101.1574095333092</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>89.78463339148489</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>43.86963438223886</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.1666500611881</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>70.03418953493001</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>185.0073106919074</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319829</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>7.399486243251149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>139.6528551206849</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534542</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>57.9640809373766</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>35.014696005602</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>9.908902023990217</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>196.9899243971807</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>193.3817982535627</v>
+        <v>100.0025634447716</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>157.3648971616168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>57.72003935672073</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>123.7665540739433</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247837</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>122.8055297600571</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,10 +2772,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247779</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8283365204681</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>242.628489054315</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247837</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>24.01333676236343</v>
+        <v>84.69473660442888</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247837</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.63539037449144</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>90.41948680756504</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>27.24310651562647</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>112.3514341322545</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>64.79461995033017</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>131.510602225328</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>17.1579442152439</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>264.9282693816769</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1714.263756178945</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2087.729514440025</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1714.263756178945</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1714.263756178945</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,52 +4567,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2652.836329015961</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2652.836329015961</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2399.074543654052</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2399.074543654052</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2046.305888383938</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1672.840130122858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1282.700798147047</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>509.2407200497801</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>541.2529128004671</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2139.977308118178</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1766.511549857098</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.372217881286</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>557.6485750391623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O11" t="n">
         <v>3757.393206660291</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.6259356382594</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C13" t="n">
-        <v>487.6897527103525</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103525</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1105.408065679807</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.408065679807</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X13" t="n">
-        <v>877.4185147817896</v>
+        <v>1155.421115790348</v>
       </c>
       <c r="Y13" t="n">
-        <v>656.6259356382594</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1002.806306216376</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1453.840519464784</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.8948606428723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8948606428723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1856.504016918807</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1634.737401488333</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1345.634534613977</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1090.95004640809</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>801.5328763711294</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>573.5433254731121</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.5433254731121</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5515,19 +5515,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5542,19 +5542,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.9395339702917</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>343.0033510423848</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>1250.1388340488</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W19" t="n">
-        <v>960.7216640118392</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X19" t="n">
-        <v>732.7321131138218</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y19" t="n">
-        <v>511.9395339702917</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5758,16 +5758,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1784.466183544591</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2317.998088216516</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443163</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3646.037028578558</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3477.100845650651</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3477.100845650651</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3329.187752068258</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>4496.535381004075</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>4207.432514129719</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>4048.478072552328</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>4048.478072552328</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>4048.478072552328</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3827.685493408798</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2016.310259422546</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2996.062531649192</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3673.055311967947</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C25" t="n">
-        <v>3504.11912904004</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D25" t="n">
-        <v>3504.11912904004</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>3356.206035457647</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816073</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941717</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V25" t="n">
-        <v>4075.496355941717</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W25" t="n">
-        <v>4075.496355941717</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X25" t="n">
-        <v>4075.496355941717</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="Y25" t="n">
-        <v>3854.703776798186</v>
+        <v>620.8300204283238</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176197</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366029</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195858</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330834</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660289</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973205</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161936</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549423</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494868</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763718</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468574</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6308,13 +6308,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
         <v>1715.000032008795</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.527047512441</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6390,13 +6390,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.957642384228</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>935.9680914862108</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.1755123426807</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176197</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364126</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193955</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420601</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>725.3071882816349</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C31" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D31" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6627,13 +6627,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6648,25 +6648,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V31" t="n">
-        <v>1198.376021052698</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W31" t="n">
-        <v>953.2967391796523</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X31" t="n">
-        <v>725.3071882816349</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y31" t="n">
-        <v>725.3071882816349</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>386.264567147934</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K32" t="n">
-        <v>1040.987899283234</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L32" t="n">
-        <v>1905.506714936589</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>2439.038619608513</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667296</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996751</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973205</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161936</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549423</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494868</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763718</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468574</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
         <v>1715.000032008795</v>
@@ -6812,10 +6812,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
         <v>1554.419908487875</v>
@@ -6824,7 +6824,7 @@
         <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.5263537034806</v>
+        <v>181.111273442767</v>
       </c>
       <c r="C34" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927027</v>
@@ -6888,22 +6888,22 @@
         <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862232</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987876</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.725653781989</v>
+        <v>1100.959038351515</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.308483745028</v>
+        <v>811.5418683145542</v>
       </c>
       <c r="X34" t="n">
-        <v>805.3189328470107</v>
+        <v>583.5523174165369</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.5263537034806</v>
+        <v>362.7597382730067</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>3348.500285847604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>3851.472756726941</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973205</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161936</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549423</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494868</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763718</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468574</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3605.731835219847</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C37" t="n">
-        <v>3605.731835219847</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D37" t="n">
-        <v>3455.615195807511</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>3307.702102225118</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>4688.221265177248</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>4688.221265177248</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4399.118398302891</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4399.118398302891</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W37" t="n">
-        <v>4109.701228265931</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X37" t="n">
-        <v>3881.711677367914</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y37" t="n">
-        <v>3660.919098224384</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
         <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972665</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M38" t="n">
-        <v>2016.310259422546</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2996.062531649193</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3876.027181978648</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320245</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.5418683145542</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C40" t="n">
-        <v>784.0235789048305</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D40" t="n">
-        <v>633.9069394924948</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E40" t="n">
-        <v>485.9938459101016</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F40" t="n">
         <v>339.1038984121913</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1842.857169001416</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1621.090553570943</v>
       </c>
       <c r="U40" t="n">
-        <v>1355.643526557402</v>
+        <v>1331.987686696586</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.959038351515</v>
+        <v>1077.303198490699</v>
       </c>
       <c r="W40" t="n">
-        <v>811.5418683145542</v>
+        <v>787.8860284537387</v>
       </c>
       <c r="X40" t="n">
-        <v>811.5418683145542</v>
+        <v>559.8964775557214</v>
       </c>
       <c r="Y40" t="n">
-        <v>811.5418683145542</v>
+        <v>339.1038984121913</v>
       </c>
     </row>
     <row r="41">
@@ -7390,67 +7390,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>845.0839474760684</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1296.118160724477</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2274.668463554306</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.420735780953</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.39320666029</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1039.221762021048</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="C43" t="n">
-        <v>870.2855790931408</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="D43" t="n">
-        <v>720.168939680805</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E43" t="n">
-        <v>572.2558460984119</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G43" t="n">
         <v>339.1038984121913</v>
@@ -7572,16 +7572,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.657581931531</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.870226851287</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>1220.870226851287</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="Y43" t="n">
-        <v>1220.870226851287</v>
+        <v>487.0169919945844</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
         <v>1482.778354750621</v>
@@ -7660,16 +7660,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3008.107474639233</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906983</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210.2179684131237</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C46" t="n">
-        <v>210.2179684131237</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D46" t="n">
-        <v>210.2179684131237</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E46" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F46" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
         <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783413</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413808</v>
+        <v>641.6688416715965</v>
       </c>
       <c r="X46" t="n">
-        <v>391.8664332433634</v>
+        <v>413.6792907735792</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.8664332433634</v>
+        <v>192.886711630049</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>205.0727796301213</v>
+        <v>229.1155640189935</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>381.817657018402</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>229.1543674071817</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>370.451600472952</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N26" t="n">
-        <v>116.5656919961555</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-3.402870721379814e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>1.017475755653834</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>102.8529310510243</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>229.1155640189919</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-9.627854069549358e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,13 +10600,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P35" t="n">
-        <v>14.45386895940385</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-3.402870721379814e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>201.966409870111</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>60.01894884691797</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11308,16 +11308,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>36.48628322061927</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>194.1735623864514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>190.6949593834352</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8601233074517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>21.59472895491405</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>58.75584507026528</v>
+        <v>152.1350798790564</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.77274616221118</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>122.1119408252166</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>21.65449394898798</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>44.44129133857076</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>45.41848457815978</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24897,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>43.89450928227598</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>143.2334843362644</v>
+        <v>82.55208449419895</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.1965898074459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>128.1651665445298</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>140.0037145830014</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>77.41759119918741</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>80.62642807260107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>94.19905316370918</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>129.2760184313253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>21.5947289549141</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417304</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="F2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="G2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="I2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="J2" t="n">
         <v>694893.1270522204</v>
       </c>
-      <c r="H2" t="n">
-        <v>694893.1270522207</v>
-      </c>
-      <c r="I2" t="n">
-        <v>694893.1270522204</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522205</v>
-      </c>
       <c r="K2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="L2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="M2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522203</v>
       </c>
       <c r="N2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="O2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="P2" t="n">
         <v>694893.1270522205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>694893.1270522204</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389444</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.686857128</v>
-      </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918987</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918991</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-137764.0955038343</v>
       </c>
       <c r="C6" t="n">
-        <v>452203.7837107105</v>
+        <v>452203.7837107104</v>
       </c>
       <c r="D6" t="n">
-        <v>452203.7837107104</v>
+        <v>452203.7837107108</v>
       </c>
       <c r="E6" t="n">
-        <v>-147016.2975140897</v>
+        <v>-147688.2524163474</v>
       </c>
       <c r="F6" t="n">
-        <v>580361.1164793171</v>
+        <v>579689.1615770591</v>
       </c>
       <c r="G6" t="n">
-        <v>580361.1164793168</v>
+        <v>579689.1615770592</v>
       </c>
       <c r="H6" t="n">
-        <v>580361.1164793172</v>
+        <v>579689.1615770591</v>
       </c>
       <c r="I6" t="n">
-        <v>580361.1164793168</v>
+        <v>579689.1615770591</v>
       </c>
       <c r="J6" t="n">
-        <v>403937.8972867238</v>
+        <v>403265.942384466</v>
       </c>
       <c r="K6" t="n">
-        <v>580361.1164793172</v>
+        <v>579689.1615770592</v>
       </c>
       <c r="L6" t="n">
-        <v>580361.116479317</v>
+        <v>579689.161577059</v>
       </c>
       <c r="M6" t="n">
-        <v>450718.801640372</v>
+        <v>450046.8467381143</v>
       </c>
       <c r="N6" t="n">
-        <v>580361.1164793171</v>
+        <v>579689.1615770592</v>
       </c>
       <c r="O6" t="n">
-        <v>580361.1164793171</v>
+        <v>579689.1615770592</v>
       </c>
       <c r="P6" t="n">
-        <v>580361.1164793168</v>
+        <v>579689.1615770591</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26761,25 +26761,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>368.5527852067814</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>248.0835591841038</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>77.46218770714295</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.5460784267327</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>278.0712885948655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>142.1113494150889</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>33.57734266018738</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.946981880942</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>341.8414824741619</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>7.012336859472981</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352324</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1257805183404</v>
+        <v>737.1685649072126</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>837.4077714107342</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36126,19 +36126,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>684.7444817995139</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>878.5046013611711</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230594</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N26" t="n">
-        <v>668.867527409067</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>456.6075901479861</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509647</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>293.639932019737</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509647</v>
+        <v>737.1685649072112</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222484</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P35" t="n">
-        <v>413.2158551787758</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>600.728396089483</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>397.2102354023186</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>544.5392841088386</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3337757.921510625</v>
+        <v>3341163.412635074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>38.32326053493003</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>245.5126496283569</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>43.86963438223886</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319829</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>20.0678491847997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534542</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>199.8099516781226</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>35.014696005602</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396218</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>18.26879610204025</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9899243971807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873217</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.2687961020398</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>100.0025634447716</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.72003935672073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8283365204681</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>61.60385878691272</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>84.69473660442888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>80.50796942908586</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.41948680756504</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>112.3514341322545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>279.6747009128615</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>69.96969900783374</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>131.510602225328</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>264.9282693816769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>114.162703879979</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.2778500677821</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>991.2778500677821</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>991.2778500677821</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>991.2778500677821</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677821</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>726.8448660535598</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>726.8448660535598</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>726.8448660535598</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>315.8589612639523</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>301.9355572025432</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2652.836329015961</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2652.836329015961</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2399.074543654052</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2399.074543654052</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2046.305888383938</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1672.840130122858</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1282.700798147047</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340179</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936061</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685564</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>74.21353655248537</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -5026,10 +5026,10 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551629</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,37 +5038,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.844055175504</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>3027.596327402151</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331038</v>
@@ -5077,16 +5077,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
         <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5111,13 +5111,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.7726509601081</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="C13" t="n">
-        <v>804.8364680322012</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D13" t="n">
         <v>654.7198286198654</v>
@@ -5196,7 +5196,7 @@
         <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1341.06273248275</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1341.06273248275</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.789495593986</v>
+        <v>1051.64556244579</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.421115790348</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="Y13" t="n">
-        <v>1155.421115790348</v>
+        <v>823.6560115477723</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2215.249704195858</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.974447301842</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468569</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5390,10 +5390,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
         <v>1554.419908487875</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.8867116300491</v>
+        <v>260.904311342305</v>
       </c>
       <c r="C16" t="n">
-        <v>192.8867116300491</v>
+        <v>260.904311342305</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>260.904311342305</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>260.904311342305</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>114.0143638443947</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>114.0143638443947</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>114.0143638443947</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.8867116300491</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L17" t="n">
         <v>1482.778354750621</v>
@@ -5530,37 +5530,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015823</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1062.630648873369</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>834.6410979753522</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.848518831822</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5758,31 +5758,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604875</v>
@@ -5828,7 +5828,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,13 +5934,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
         <v>1270.093287563029</v>
@@ -5955,7 +5955,7 @@
         <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.5269503710301</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="C25" t="n">
-        <v>393.5907674431232</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814702</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.039769608815</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>841.6225995718539</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>841.6225995718539</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>620.8300204283238</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6235,43 +6235,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094645</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.2127443498364</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1538185715858</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1538185715858</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1894.117346117923</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1894.117346117923</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1672.350730687449</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258584</v>
+        <v>1383.247863813093</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.060509258584</v>
+        <v>1128.563375607206</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.643339221624</v>
+        <v>839.1462055702453</v>
       </c>
       <c r="X31" t="n">
-        <v>935.6537883236062</v>
+        <v>611.156654672228</v>
       </c>
       <c r="Y31" t="n">
-        <v>714.8612091800761</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
         <v>1069.293752345675</v>
@@ -6715,7 +6715,7 @@
         <v>3027.596327402151</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107236</v>
@@ -6724,10 +6724,10 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.111273442767</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1875.022284863203</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.643526557402</v>
+        <v>1585.919417988847</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351515</v>
+        <v>1331.23492978296</v>
       </c>
       <c r="W34" t="n">
-        <v>811.5418683145542</v>
+        <v>1041.817759745999</v>
       </c>
       <c r="X34" t="n">
-        <v>583.5523174165369</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.7597382730067</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551628</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,64 +6992,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858343</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>390.3640755286979</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>818.2062848686776</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1682.725100522032</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C40" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1842.857169001416</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.090553570943</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U40" t="n">
-        <v>1331.987686696586</v>
+        <v>1584.013310970452</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.303198490699</v>
+        <v>1329.328822764566</v>
       </c>
       <c r="W40" t="n">
-        <v>787.8860284537387</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X40" t="n">
-        <v>559.8964775557214</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y40" t="n">
-        <v>339.1038984121913</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>487.0169919945844</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C43" t="n">
-        <v>487.0169919945844</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>487.0169919945844</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1885.667002460427</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1693.981118287254</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1472.21450285678</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X43" t="n">
-        <v>487.0169919945844</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y43" t="n">
-        <v>487.0169919945844</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>192.886711630049</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C46" t="n">
-        <v>192.886711630049</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D46" t="n">
-        <v>192.886711630049</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
-        <v>192.886711630049</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>641.6688416715965</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>413.6792907735792</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.886711630049</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>229.1155640189935</v>
+        <v>258.6211785616939</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,16 +8941,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>103.7862464855138</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400264</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,13 +9883,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>201.9664098701116</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>229.1155640189919</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>86.40188652749026</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>190.6949593834352</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>78.08362430779783</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.59472895491405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>78.08362430779829</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>152.1350798790564</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.1119408252166</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.5631840798975</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>45.41848457815978</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>27.32829388313461</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>82.55208449419895</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.0409798470833</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.1651665445298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.41759119918741</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>6.537137292751368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.96245366221359</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>94.19905316370918</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>21.5947289549141</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>104.4219494721158</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712248.7054417304</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312475</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312482</v>
@@ -26325,28 +26325,28 @@
         <v>694893.1270522206</v>
       </c>
       <c r="F2" t="n">
+        <v>694893.1270522202</v>
+      </c>
+      <c r="G2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>694893.1270522207</v>
+      </c>
+      <c r="I2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="J2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="H2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="I2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>694893.1270522204</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522206</v>
       </c>
       <c r="L2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="M2" t="n">
-        <v>694893.1270522203</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="N2" t="n">
         <v>694893.1270522206</v>
@@ -26355,7 +26355,7 @@
         <v>694893.1270522206</v>
       </c>
       <c r="P2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522206</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389444</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918985</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918989</v>
@@ -26441,25 +26441,25 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="F5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137764.0955038343</v>
+        <v>-137764.0955038342</v>
       </c>
       <c r="C6" t="n">
-        <v>452203.7837107104</v>
+        <v>452203.7837107101</v>
       </c>
       <c r="D6" t="n">
         <v>452203.7837107108</v>
       </c>
       <c r="E6" t="n">
-        <v>-147688.2524163474</v>
+        <v>-147083.4930043154</v>
       </c>
       <c r="F6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890909</v>
       </c>
       <c r="G6" t="n">
-        <v>579689.1615770592</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="H6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="I6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890909</v>
       </c>
       <c r="J6" t="n">
-        <v>403265.942384466</v>
+        <v>403870.7017964983</v>
       </c>
       <c r="K6" t="n">
-        <v>579689.1615770592</v>
+        <v>580293.920989091</v>
       </c>
       <c r="L6" t="n">
-        <v>579689.161577059</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="M6" t="n">
-        <v>450046.8467381143</v>
+        <v>450651.6061501465</v>
       </c>
       <c r="N6" t="n">
-        <v>579689.1615770592</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="O6" t="n">
-        <v>579689.1615770592</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="P6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890913</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26767,7 +26767,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>368.5527852067814</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>194.1370723978101</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>78.41012313600024</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.5460784267327</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.946981880942</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.7163208359953</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35412,22 +35412,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>737.1685649072126</v>
+        <v>766.674179449913</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048858</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282456</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200618</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36603,13 +36603,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>740.8875257003384</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>737.1685649072112</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>568.8760771471015</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.306058528246</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37782,22 +37782,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
